--- a/BackTest/2020-01-20 BackTest ETC.xlsx
+++ b/BackTest/2020-01-20 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10252,7 +10252,7 @@
         <v>-47767.75752211837</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-43171.57952976837</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-45062.28712976837</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-45342.40572976837</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-42249.57482976837</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-42839.86682976837</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-43013.86682976837</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-43431.86682976837</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-43274.72172976837</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-43144.15252976837</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-42901.60309400711</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-42822.81439400712</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-43066.03299400712</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-43414.94179400711</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-43408.63179400712</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-43308.63179400712</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-43232.40789400712</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-43240.08789400712</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-44734.02140033623</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-45042.59240033624</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-44899.85980033623</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-45096.69050033623</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-45062.51420033623</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-44867.93440033623</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-45031.87750033623</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-45600.06020033623</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-46152.81380033623</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-46002.95980033623</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-46102.95980033623</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-45790.79380033623</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-45656.11690033623</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-45857.02080033623</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-45283.07210033623</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-44567.72930033623</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-44548.17980033623</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-44263.17980033623</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-44154.72150033623</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-43859.08450033623</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-43882.75190033622</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-43889.25980033622</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-44167.08870033622</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-44473.33350033622</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-44682.14407906285</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-44789.55877906286</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-44785.68997906286</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-45011.16569907287</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-44785.51899559395</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-46245.02549559395</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-45543.20129559395</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-45540.43759559395</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-45805.18879559395</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-45404.25869559395</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-45628.66619559395</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-46345.12130979304</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-40861.60835619992</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-41288.60535619991</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-65647.97677913652</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-67976.04517913652</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-70751.71777913652</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-70395.24707913652</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-68085.03107913652</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-75793.46392278124</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-78724.06652278124</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-77074.66079793934</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-76088.81149793934</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-80111.85389793935</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-78302.54039793934</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-81611.77339793934</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-77569.57349793933</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-74175.80619793932</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-77380.09709793932</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-79754.84539793932</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-82009.56989793932</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18766,10 +18766,14 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>9470</v>
+      </c>
+      <c r="J557" t="n">
+        <v>9470</v>
+      </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
@@ -18799,11 +18803,19 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>9510</v>
+      </c>
+      <c r="J558" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18844,19 @@
         <v>-90988.33346255322</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>9510</v>
+      </c>
+      <c r="J559" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18865,11 +18885,19 @@
         <v>-89304.71586255322</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>9500</v>
+      </c>
+      <c r="J560" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18898,11 +18926,19 @@
         <v>-88223.90871789913</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>9520</v>
+      </c>
+      <c r="J561" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18931,11 +18967,19 @@
         <v>-90964.47231789913</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>9545</v>
+      </c>
+      <c r="J562" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18964,11 +19008,19 @@
         <v>-90848.82201789913</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>9540</v>
+      </c>
+      <c r="J563" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +19049,19 @@
         <v>-90852.98721789914</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>9550</v>
+      </c>
+      <c r="J564" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19030,11 +19090,19 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>9525</v>
+      </c>
+      <c r="J565" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19063,11 +19131,19 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>9520</v>
+      </c>
+      <c r="J566" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19096,11 +19172,19 @@
         <v>-91964.83321789914</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>9520</v>
+      </c>
+      <c r="J567" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19129,11 +19213,19 @@
         <v>-91356.78965100583</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>9550</v>
+      </c>
+      <c r="J568" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19162,11 +19254,19 @@
         <v>-91106.77475100584</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>9555</v>
+      </c>
+      <c r="J569" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19195,11 +19295,19 @@
         <v>-91159.95155100584</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>9575</v>
+      </c>
+      <c r="J570" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19231,8 +19339,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19261,11 +19375,19 @@
         <v>-90934.61195100583</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>9570</v>
+      </c>
+      <c r="J572" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19297,8 +19419,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19330,8 +19458,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19363,8 +19497,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19396,8 +19536,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19429,8 +19575,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19462,8 +19614,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19495,8 +19653,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19528,8 +19692,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19561,8 +19731,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19594,8 +19770,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19627,8 +19809,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19660,8 +19848,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19693,8 +19887,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19726,8 +19926,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19759,8 +19965,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19792,8 +20004,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19825,8 +20043,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19858,8 +20082,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19891,8 +20121,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19924,8 +20160,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19957,8 +20199,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19990,8 +20238,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20023,8 +20277,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20056,8 +20316,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20089,8 +20355,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20122,8 +20394,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20155,8 +20433,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20188,8 +20472,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20221,8 +20511,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20254,8 +20550,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20287,8 +20589,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20320,8 +20628,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20353,8 +20667,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20386,8 +20706,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20419,8 +20745,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20452,8 +20784,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20485,8 +20823,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20518,8 +20862,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20551,8 +20901,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20584,8 +20940,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20617,8 +20979,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20650,8 +21018,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20683,8 +21057,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20716,8 +21096,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20749,8 +21135,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20782,8 +21174,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20815,8 +21213,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20848,8 +21252,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20881,8 +21291,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20914,8 +21330,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20947,8 +21369,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20980,8 +21408,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21013,8 +21447,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21046,8 +21486,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21079,8 +21525,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21109,11 +21561,19 @@
         <v>-98911.82918557044</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>9675</v>
+      </c>
+      <c r="J628" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +21602,19 @@
         <v>-97186.33038557044</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>9670</v>
+      </c>
+      <c r="J629" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +21643,19 @@
         <v>-96548.70118557045</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>9690</v>
+      </c>
+      <c r="J630" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21208,11 +21684,19 @@
         <v>-96470.76528557045</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>9700</v>
+      </c>
+      <c r="J631" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +21725,19 @@
         <v>-95538.33438557044</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>9730</v>
+      </c>
+      <c r="J632" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21277,8 +21769,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,13 +21805,19 @@
         <v>-84760.94498557044</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>9470</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L634" t="n">
-        <v>1</v>
+        <v>1.028262935586061</v>
       </c>
       <c r="M634" t="inlineStr"/>
     </row>
@@ -21340,7 +21844,7 @@
         <v>-86246.24454852394</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21877,7 @@
         <v>-85542.13901147744</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21910,7 @@
         <v>-86709.01701147744</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21943,7 @@
         <v>-85653.66361147744</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21538,7 +22042,7 @@
         <v>-85952.28391147744</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +22075,7 @@
         <v>-86858.98751147743</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22594,7 +23098,7 @@
         <v>-86778.06239850238</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22627,7 +23131,7 @@
         <v>-86241.56079850238</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23386,7 +23890,7 @@
         <v>-79595.31008433398</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23419,7 +23923,7 @@
         <v>-79040.48738433397</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23452,7 +23956,7 @@
         <v>-77992.41438433397</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23485,7 +23989,7 @@
         <v>-77519.09168433397</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23518,7 +24022,7 @@
         <v>-78426.78048433397</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +24055,7 @@
         <v>-78975.02351659203</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +24088,7 @@
         <v>-80132.61679792401</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +24121,7 @@
         <v>-80784.27299792401</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +24154,7 @@
         <v>-80146.81689792401</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +24187,7 @@
         <v>-79314.43299792401</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +24220,7 @@
         <v>-78155.52023018208</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +24253,7 @@
         <v>-72839.49933018208</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +24286,7 @@
         <v>-69855.04073018208</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24838,7 +25342,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25036,7 +25540,7 @@
         <v>-27549.04272929272</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25573,7 @@
         <v>-25516.82402929272</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25606,7 @@
         <v>-22594.18552929272</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25639,7 @@
         <v>-22071.96182929272</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25672,7 @@
         <v>-25185.91599202087</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25705,7 @@
         <v>-27383.38139202087</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25738,7 @@
         <v>-29287.27889202087</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25771,7 @@
         <v>-28116.67289202087</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25804,7 @@
         <v>-28963.65119202087</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25837,7 @@
         <v>-27798.49869202087</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25870,7 @@
         <v>-25499.12059202087</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25903,7 @@
         <v>-26465.85629202087</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25936,7 @@
         <v>-28089.93999202087</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25969,7 @@
         <v>-26426.56319202087</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +26002,7 @@
         <v>-27044.22459202087</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +26035,7 @@
         <v>-26983.07209202087</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +26068,7 @@
         <v>-26148.26909202087</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +26101,7 @@
         <v>-27263.83639202087</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +26134,7 @@
         <v>-25599.27429202087</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +26167,7 @@
         <v>-26654.83679202087</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +26200,7 @@
         <v>-27309.06219202087</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +26233,7 @@
         <v>-26962.18859202087</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +26266,7 @@
         <v>-25675.87209202087</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +26299,7 @@
         <v>-25253.59899202087</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +26332,7 @@
         <v>-25253.59899202087</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +26365,7 @@
         <v>-22565.21419202087</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +26398,7 @@
         <v>-22565.21419202087</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +26431,7 @@
         <v>-18501.79519202087</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +26464,7 @@
         <v>-16395.69799202087</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +26497,7 @@
         <v>-18796.17359202087</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26026,7 +26530,7 @@
         <v>-18796.17359202087</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26059,7 +26563,7 @@
         <v>-14988.78269202087</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26092,7 +26596,7 @@
         <v>-15934.58170052135</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26125,7 +26629,7 @@
         <v>-15191.09990052135</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26158,7 +26662,7 @@
         <v>-15191.09990052135</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26191,7 +26695,7 @@
         <v>-15537.70407000312</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26224,7 +26728,7 @@
         <v>-16787.03267000311</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26257,7 +26761,7 @@
         <v>-16233.90067000312</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26290,7 +26794,7 @@
         <v>-17981.02977000312</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26323,7 +26827,7 @@
         <v>-18496.58063391072</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26356,7 +26860,7 @@
         <v>-19553.80363391072</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26389,7 +26893,7 @@
         <v>-19751.53559674856</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26422,7 +26926,7 @@
         <v>-19751.53559674856</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26455,7 +26959,7 @@
         <v>-19388.59259674856</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26488,7 +26992,7 @@
         <v>-18354.46130819087</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26521,7 +27025,7 @@
         <v>-17014.02190819087</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26554,7 +27058,7 @@
         <v>-17014.02190819087</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26587,7 +27091,7 @@
         <v>-17312.82390819087</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26620,7 +27124,7 @@
         <v>-19976.54200819087</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26653,7 +27157,7 @@
         <v>-19976.54200819087</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26686,7 +27190,7 @@
         <v>-20152.07950819087</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26719,7 +27223,7 @@
         <v>-20322.93000819087</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26752,7 +27256,7 @@
         <v>-21925.34230819087</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26785,7 +27289,7 @@
         <v>-22762.05230819087</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26818,7 +27322,7 @@
         <v>-22327.17749020247</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26851,7 +27355,7 @@
         <v>-22327.17749020247</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -26884,7 +27388,7 @@
         <v>-22335.92209020247</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -26917,7 +27421,7 @@
         <v>-22310.65399020247</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -26950,7 +27454,7 @@
         <v>-22310.65399020247</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -26983,7 +27487,7 @@
         <v>-21906.40719020247</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27016,7 +27520,7 @@
         <v>-22086.21429020247</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27049,7 +27553,7 @@
         <v>-22065.88709020247</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27082,7 +27586,7 @@
         <v>-22057.93769020247</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27148,7 +27652,7 @@
         <v>-24454.13989020247</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27181,7 +27685,7 @@
         <v>-23753.95799020247</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27214,7 +27718,7 @@
         <v>-23753.95799020247</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27247,7 +27751,7 @@
         <v>-24129.46149020247</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27280,7 +27784,7 @@
         <v>-22455.58089020247</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27313,7 +27817,7 @@
         <v>-21131.25079020247</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27346,7 +27850,7 @@
         <v>-21131.25079020247</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27379,7 +27883,7 @@
         <v>-21235.33589020247</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27412,7 +27916,7 @@
         <v>-21235.33589020247</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27445,7 +27949,7 @@
         <v>-21235.33589020247</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27478,7 +27982,7 @@
         <v>-22074.49759020247</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27511,7 +28015,7 @@
         <v>-22265.15219020247</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27544,7 +28048,7 @@
         <v>-22265.15219020247</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27577,7 +28081,7 @@
         <v>-23212.96099020247</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27610,7 +28114,7 @@
         <v>-26234.18779020247</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27643,7 +28147,7 @@
         <v>-28446.46889020247</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27676,7 +28180,7 @@
         <v>-26617.32839020247</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27709,7 +28213,7 @@
         <v>-28189.39409020247</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27742,7 +28246,7 @@
         <v>-31426.58629020247</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27775,7 +28279,7 @@
         <v>-31145.17799020247</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27808,7 +28312,7 @@
         <v>-30111.04089020247</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27841,7 +28345,7 @@
         <v>-32397.86219020247</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -27874,7 +28378,7 @@
         <v>-41128.97059020247</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -27907,7 +28411,7 @@
         <v>-37239.58752155168</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -27940,7 +28444,7 @@
         <v>-37239.58752155168</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -27973,7 +28477,7 @@
         <v>-36133.73382155168</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28006,7 +28510,7 @@
         <v>-36352.70782155168</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28543,7 @@
         <v>-35030.74352155168</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28576,7 @@
         <v>-33420.75982155168</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28609,7 @@
         <v>-36060.17889871704</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28642,7 @@
         <v>-34533.92599871704</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28675,7 @@
         <v>-36687.98009871704</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28204,7 +28708,7 @@
         <v>-37815.71819871704</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -28237,7 +28741,7 @@
         <v>-37141.35089871704</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -28270,7 +28774,7 @@
         <v>-38680.01299871704</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -28303,7 +28807,7 @@
         <v>-40226.81139871704</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -28336,7 +28840,7 @@
         <v>-38835.34129871704</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28873,7 @@
         <v>-38835.34129871704</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28501,7 +29005,7 @@
         <v>-37788.22359871704</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28567,7 +29071,7 @@
         <v>-36776.94929871704</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -28633,7 +29137,7 @@
         <v>-35709.63459871704</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -28765,7 +29269,7 @@
         <v>-36321.65989871704</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +29302,7 @@
         <v>-36321.65989871704</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -29029,7 +29533,7 @@
         <v>-36633.94449871705</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29062,7 +29566,7 @@
         <v>-36761.00439871705</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29095,7 +29599,7 @@
         <v>-37442.68169871705</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29260,7 +29764,7 @@
         <v>-36233.76029871705</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -29326,7 +29830,7 @@
         <v>-36204.06639871706</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -29359,7 +29863,7 @@
         <v>-36204.56639871706</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -29392,7 +29896,7 @@
         <v>-35959.26409871705</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -29425,7 +29929,7 @@
         <v>-43121.19599871706</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -29458,7 +29962,7 @@
         <v>-43121.19599871706</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -29491,7 +29995,7 @@
         <v>-43491.65779871705</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -29557,7 +30061,7 @@
         <v>-44051.88419871705</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -29623,7 +30127,7 @@
         <v>-44965.65549871705</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -29656,7 +30160,7 @@
         <v>-44870.82009871705</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -29689,7 +30193,7 @@
         <v>-44870.82009871705</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -29722,7 +30226,7 @@
         <v>-44264.79779871705</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -29755,7 +30259,7 @@
         <v>-44471.41679871705</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -29788,7 +30292,7 @@
         <v>-44915.14169871705</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -29821,7 +30325,7 @@
         <v>-44358.93969871705</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -29854,7 +30358,7 @@
         <v>-44465.77229871706</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -29887,7 +30391,7 @@
         <v>-44356.33209871706</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -29920,7 +30424,7 @@
         <v>-43723.29669871706</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -29953,7 +30457,7 @@
         <v>-44465.96199871706</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -29986,7 +30490,7 @@
         <v>-43016.57743667467</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -30019,7 +30523,7 @@
         <v>-42857.23773667467</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -30052,7 +30556,7 @@
         <v>-44448.24833667467</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -30085,7 +30589,7 @@
         <v>-44587.38463667467</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -30118,7 +30622,7 @@
         <v>-38005.06678947088</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -30151,7 +30655,7 @@
         <v>-38005.06678947088</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -30184,7 +30688,7 @@
         <v>-38005.06678947088</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -30217,7 +30721,7 @@
         <v>-37900.25368947088</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -30250,7 +30754,7 @@
         <v>-36945.04458947088</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -30283,7 +30787,7 @@
         <v>-35446.76298947088</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -30316,7 +30820,7 @@
         <v>-34333.40568947088</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -30349,7 +30853,7 @@
         <v>-35795.90048947088</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -30415,7 +30919,7 @@
         <v>-37403.54753689944</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -30514,7 +31018,7 @@
         <v>-33413.61833249131</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -30547,7 +31051,7 @@
         <v>-30028.17613249131</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -30580,7 +31084,7 @@
         <v>-30028.17613249131</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -30613,7 +31117,7 @@
         <v>-28929.90943249131</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -30646,7 +31150,7 @@
         <v>-30179.57723249131</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -30679,7 +31183,7 @@
         <v>-30179.57723249131</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -30712,7 +31216,7 @@
         <v>-33401.73463249131</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -30745,7 +31249,7 @@
         <v>-34108.91323249131</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -30778,7 +31282,7 @@
         <v>-34806.0225324913</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -30811,7 +31315,7 @@
         <v>-34806.0225324913</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -30844,7 +31348,7 @@
         <v>-34595.25543249131</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -30877,7 +31381,7 @@
         <v>-34595.25543249131</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -30910,7 +31414,7 @@
         <v>-34595.25543249131</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -30943,7 +31447,7 @@
         <v>-34130.51263249131</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -30976,7 +31480,7 @@
         <v>-33906.54423249131</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31009,7 +31513,7 @@
         <v>-34374.80963249131</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31042,7 +31546,7 @@
         <v>-33597.9114324913</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31108,7 +31612,7 @@
         <v>-37017.5336283088</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31207,7 +31711,7 @@
         <v>-35798.3173283088</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -31372,7 +31876,7 @@
         <v>-37978.59792830881</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -31405,7 +31909,7 @@
         <v>-37965.37752830881</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -31438,7 +31942,7 @@
         <v>-37360.84712830881</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -31471,7 +31975,7 @@
         <v>-37370.85222830881</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -31504,7 +32008,7 @@
         <v>-37456.37092830881</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -31537,7 +32041,7 @@
         <v>-37456.37092830881</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -31570,7 +32074,7 @@
         <v>-37204.28378384298</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -31603,7 +32107,7 @@
         <v>-35533.84278384298</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -31636,7 +32140,7 @@
         <v>-36331.77318384298</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -31669,7 +32173,7 @@
         <v>-36001.04828384297</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -31702,7 +32206,7 @@
         <v>-35471.07318384297</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -31735,7 +32239,7 @@
         <v>-35946.79258384297</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -31768,7 +32272,7 @@
         <v>-34963.87193633339</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -31801,7 +32305,7 @@
         <v>-35070.57193633339</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -31834,7 +32338,7 @@
         <v>-35171.47193633339</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -31867,7 +32371,7 @@
         <v>-35171.47193633339</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -31900,7 +32404,7 @@
         <v>-35294.18343633339</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -31933,7 +32437,7 @@
         <v>-35287.81373633339</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -31966,7 +32470,7 @@
         <v>-35311.10573633339</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -31999,7 +32503,7 @@
         <v>-35029.38203633339</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -32032,7 +32536,7 @@
         <v>-35994.98293633338</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -32065,7 +32569,7 @@
         <v>-35999.66493633339</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -32098,7 +32602,7 @@
         <v>-35999.66493633339</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -32131,7 +32635,7 @@
         <v>-36074.51753633338</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -32164,7 +32668,7 @@
         <v>-37499.11163633339</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -32197,7 +32701,7 @@
         <v>-37151.49523633339</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -32230,7 +32734,7 @@
         <v>-38894.42713633339</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -32263,7 +32767,7 @@
         <v>-38146.89483633339</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -32296,7 +32800,7 @@
         <v>-38146.89483633339</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -32329,7 +32833,7 @@
         <v>-38470.84703633339</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -32362,7 +32866,7 @@
         <v>-38387.61543633339</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -32395,7 +32899,7 @@
         <v>-38387.61543633339</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -32428,7 +32932,7 @@
         <v>-38239.99783633339</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -32461,7 +32965,7 @@
         <v>-38301.4490363334</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -32494,7 +32998,7 @@
         <v>-35767.5343363334</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -32527,7 +33031,7 @@
         <v>-37308.6279363334</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -32560,7 +33064,7 @@
         <v>-35692.4868363334</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -32593,7 +33097,7 @@
         <v>-36744.7134363334</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -32626,7 +33130,7 @@
         <v>-36744.7134363334</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -32659,7 +33163,7 @@
         <v>-35660.45718192727</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -32692,7 +33196,7 @@
         <v>-36110.45718192727</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -32725,7 +33229,7 @@
         <v>-36110.45718192727</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -32758,7 +33262,7 @@
         <v>-36051.33998192727</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -32791,7 +33295,7 @@
         <v>-36077.41108192727</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -32824,7 +33328,7 @@
         <v>-36525.30518192727</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -32857,7 +33361,7 @@
         <v>-36397.99958192727</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -32890,7 +33394,7 @@
         <v>-36397.99958192727</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -32923,7 +33427,7 @@
         <v>-36554.32278192727</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -32956,7 +33460,7 @@
         <v>-36554.32278192727</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -32989,7 +33493,7 @@
         <v>-36169.67138192726</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -33022,7 +33526,7 @@
         <v>-36143.88578192726</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -33055,7 +33559,7 @@
         <v>-34143.79308192726</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -33088,7 +33592,7 @@
         <v>-35009.89638192726</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33121,7 +33625,7 @@
         <v>-36646.27458192726</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -33154,7 +33658,7 @@
         <v>-36615.08758192726</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -33187,7 +33691,7 @@
         <v>-36807.12318192727</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -33220,7 +33724,7 @@
         <v>-37137.83518192726</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -33253,7 +33757,7 @@
         <v>-38257.53838192727</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -33286,7 +33790,7 @@
         <v>-38869.78708192726</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -33319,7 +33823,7 @@
         <v>-38271.46218192727</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -33352,7 +33856,7 @@
         <v>-37787.66868192727</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -33385,7 +33889,7 @@
         <v>-37528.25668192727</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -33418,7 +33922,7 @@
         <v>-37085.75148192727</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -33451,7 +33955,7 @@
         <v>-37285.91018192727</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -33484,7 +33988,7 @@
         <v>-37285.91018192727</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -33517,7 +34021,7 @@
         <v>-37372.80258192727</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -33550,7 +34054,7 @@
         <v>-37361.45988192727</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -33583,7 +34087,7 @@
         <v>-37818.69468192726</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -33616,7 +34120,7 @@
         <v>-37804.60958192727</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -33649,7 +34153,7 @@
         <v>-38132.36388192727</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -33682,7 +34186,7 @@
         <v>-40376.33268192727</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -33715,7 +34219,7 @@
         <v>-39164.14368192727</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -33748,7 +34252,7 @@
         <v>-38430.81178192727</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -33781,7 +34285,7 @@
         <v>-38430.81178192727</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -33814,7 +34318,7 @@
         <v>-37760.55258192727</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -33847,7 +34351,7 @@
         <v>-38489.36338192727</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -33880,7 +34384,7 @@
         <v>-38841.86338192727</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -33913,7 +34417,7 @@
         <v>-39071.05538192728</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -33946,7 +34450,7 @@
         <v>-39071.05538192728</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -33979,7 +34483,7 @@
         <v>-39330.15108192727</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34012,7 +34516,7 @@
         <v>-39016.46698192727</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34045,7 +34549,7 @@
         <v>-39021.94538192727</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34078,7 +34582,7 @@
         <v>-39043.94538192727</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -34111,7 +34615,7 @@
         <v>-39849.32968192727</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34144,7 +34648,7 @@
         <v>-39828.03768192727</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -34177,7 +34681,7 @@
         <v>-39751.21026675218</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -34210,7 +34714,7 @@
         <v>-39751.21026675218</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -34243,7 +34747,7 @@
         <v>-37418.13666675217</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -34276,7 +34780,7 @@
         <v>-36733.32316675218</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -34309,7 +34813,7 @@
         <v>-36733.32316675218</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -34342,7 +34846,7 @@
         <v>-37411.16716675217</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -34375,7 +34879,7 @@
         <v>-38648.87836675217</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -34408,7 +34912,7 @@
         <v>-38417.57536675217</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -34441,7 +34945,7 @@
         <v>-38628.68056675217</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -34474,7 +34978,7 @@
         <v>-38483.85616675217</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -34507,7 +35011,7 @@
         <v>-38995.01726675217</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -34540,7 +35044,7 @@
         <v>-38995.01726675217</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -34573,7 +35077,7 @@
         <v>-38157.06146675217</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -34606,7 +35110,7 @@
         <v>-37435.56236675216</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -34639,7 +35143,7 @@
         <v>-38315.72726675217</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -34672,7 +35176,7 @@
         <v>-37831.93646675217</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -34705,7 +35209,7 @@
         <v>-38826.43276675216</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -34738,7 +35242,7 @@
         <v>-38321.91166675217</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -34771,7 +35275,7 @@
         <v>-38320.41166675217</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -34804,7 +35308,7 @@
         <v>-38773.22466675217</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -34837,7 +35341,7 @@
         <v>-38391.76826675217</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -34870,7 +35374,7 @@
         <v>-38391.76826675217</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -34903,7 +35407,7 @@
         <v>-37733.86386675217</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -34936,7 +35440,7 @@
         <v>-37733.86386675217</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -34969,7 +35473,7 @@
         <v>-37318.36916675216</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -35002,7 +35506,7 @@
         <v>-38162.18056675216</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -35035,7 +35539,7 @@
         <v>-37794.37246675216</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -35068,7 +35572,7 @@
         <v>-39538.31086675216</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -35101,7 +35605,7 @@
         <v>-39357.00316675216</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -35134,7 +35638,7 @@
         <v>-39410.95186675216</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35167,7 +35671,7 @@
         <v>-39145.94496675216</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35200,7 +35704,7 @@
         <v>-39586.94096675216</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35233,7 +35737,7 @@
         <v>-40508.41006675216</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -35266,7 +35770,7 @@
         <v>-39689.24406675217</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -35299,7 +35803,7 @@
         <v>-39689.24406675217</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -35332,7 +35836,7 @@
         <v>-40167.80736675217</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -35365,7 +35869,7 @@
         <v>-40167.80736675217</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -35398,7 +35902,7 @@
         <v>-40678.95926675216</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -35431,7 +35935,7 @@
         <v>-40883.33416675217</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -35464,7 +35968,7 @@
         <v>-42239.16266675217</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -35497,7 +36001,7 @@
         <v>-40906.38886675217</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -35530,7 +36034,7 @@
         <v>-40756.20996675217</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -35563,7 +36067,7 @@
         <v>-37855.39896675217</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -35596,7 +36100,7 @@
         <v>-37748.33836675217</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -35629,7 +36133,7 @@
         <v>-37788.92236675217</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -35662,7 +36166,7 @@
         <v>-37818.15026675217</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -35695,7 +36199,7 @@
         <v>-37580.37446675217</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -35728,7 +36232,7 @@
         <v>-37317.64225183398</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -35761,7 +36265,7 @@
         <v>-37317.64225183398</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -35794,7 +36298,7 @@
         <v>-37972.44545183398</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -35827,7 +36331,7 @@
         <v>-39497.17555183398</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -35860,7 +36364,7 @@
         <v>-43718.43275183398</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -35893,7 +36397,7 @@
         <v>-45157.32085183397</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -35926,7 +36430,7 @@
         <v>-41415.89405183397</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -35959,7 +36463,7 @@
         <v>-45876.51645183397</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -35992,7 +36496,7 @@
         <v>-49807.44725183398</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -36025,7 +36529,7 @@
         <v>-51375.20185183398</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -36058,7 +36562,7 @@
         <v>-49242.42918652785</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -36091,7 +36595,7 @@
         <v>-51482.82528652785</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -36124,7 +36628,7 @@
         <v>-53176.09048652785</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -36157,7 +36661,7 @@
         <v>-51840.13278652785</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -36190,7 +36694,7 @@
         <v>-49483.20328652785</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -36223,7 +36727,7 @@
         <v>-51710.52418652785</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -36256,7 +36760,7 @@
         <v>-52676.62264886882</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -36289,7 +36793,7 @@
         <v>-54313.93304886882</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -36388,7 +36892,7 @@
         <v>-44243.92054886882</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -40381,11 +40885,17 @@
         <v>-94505.99314236941</v>
       </c>
       <c r="H1212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>9055</v>
+      </c>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr"/>
+      <c r="K1212" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40418,7 +40928,11 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr"/>
+      <c r="K1213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40447,11 +40961,17 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>9125</v>
+      </c>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr"/>
+      <c r="K1214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -40480,11 +41000,17 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>9140</v>
+      </c>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr"/>
+      <c r="K1215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -40513,11 +41039,17 @@
         <v>-94854.80134236941</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>9140</v>
+      </c>
       <c r="J1216" t="inlineStr"/>
-      <c r="K1216" t="inlineStr"/>
+      <c r="K1216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1216" t="n">
         <v>1</v>
       </c>
@@ -40546,15 +41078,13 @@
         <v>-94348.06424236941</v>
       </c>
       <c r="H1217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1217" t="n">
-        <v>9110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1217" t="n">
@@ -40585,9 +41115,11 @@
         <v>-95275.47154236941</v>
       </c>
       <c r="H1218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>9125</v>
+      </c>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -40661,9 +41193,11 @@
         <v>-100954.2474388194</v>
       </c>
       <c r="H1220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>9075</v>
+      </c>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
@@ -40737,9 +41271,11 @@
         <v>-105576.8504683095</v>
       </c>
       <c r="H1222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>9000</v>
+      </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
@@ -40813,9 +41349,11 @@
         <v>-96352.20936742501</v>
       </c>
       <c r="H1224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>8990</v>
+      </c>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
@@ -40889,9 +41427,11 @@
         <v>-94897.818567425</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>9075</v>
+      </c>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
@@ -41043,11 +41583,9 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1230" t="n">
-        <v>9105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41082,11 +41620,9 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1231" t="n">
-        <v>9125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41121,11 +41657,9 @@
         <v>-81262.88413957061</v>
       </c>
       <c r="H1232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1232" t="n">
-        <v>9125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41160,11 +41694,9 @@
         <v>-78563.01003957061</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1233" t="n">
-        <v>9120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41199,11 +41731,9 @@
         <v>-70722.36333957061</v>
       </c>
       <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>9125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
@@ -41386,11 +41916,9 @@
         <v>-63139.20793509903</v>
       </c>
       <c r="H1239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1239" t="n">
-        <v>9215</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
@@ -41462,11 +41990,9 @@
         <v>-60538.88733509903</v>
       </c>
       <c r="H1241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1241" t="n">
-        <v>9220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
@@ -41538,11 +42064,9 @@
         <v>-67559.50173509904</v>
       </c>
       <c r="H1243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1243" t="n">
-        <v>9220</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
@@ -42961,6 +43485,6 @@
       <c r="M1281" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest ETC.xlsx
+++ b/BackTest/2020-01-20 BackTest ETC.xlsx
@@ -10252,7 +10252,7 @@
         <v>-47767.75752211837</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-43171.57952976837</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-45062.28712976837</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-45342.40572976837</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-42249.57482976837</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-42839.86682976837</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-43013.86682976837</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-43431.86682976837</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-43274.72172976837</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-43144.15252976837</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-42901.60309400711</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-42822.81439400712</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-43066.03299400712</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-43414.94179400711</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-43408.63179400712</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-43308.63179400712</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-43232.40789400712</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-43240.08789400712</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-44734.02140033623</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-45042.59240033624</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-44899.85980033623</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-45096.69050033623</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-45062.51420033623</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-44867.93440033623</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-45031.87750033623</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-45600.06020033623</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-46152.81380033623</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-46002.95980033623</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-46102.95980033623</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-45790.79380033623</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-45656.11690033623</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-45857.02080033623</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-45283.07210033623</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-45456.23500033623</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-44567.72930033623</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-44548.17980033623</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-44263.17980033623</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-44154.72150033623</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-43859.08450033623</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-43882.75190033622</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-43889.25980033622</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-44167.08870033622</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-44473.33350033622</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-44682.14407906285</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-44789.55877906286</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-44785.68997906286</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-43659.44977906286</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-45011.16569907287</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-44785.51899559395</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-46245.02549559395</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-45543.20129559395</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-45540.43759559395</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-45805.18879559395</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-45404.25869559395</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-45628.66619559395</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-46345.12130979304</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-41323.85690979304</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-40861.60835619992</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-41288.60535619991</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>-65647.97677913652</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>-70303.40747913651</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>-67976.04517913652</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>-70751.71777913652</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>-70395.24707913652</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>-68085.03107913652</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>-75793.46392278124</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>-78724.06652278124</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-77074.66079793934</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-76088.81149793934</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-80111.85389793935</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-78302.54039793934</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-81611.77339793934</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-77569.57349793933</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-74175.80619793932</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-77380.09709793932</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-79754.84539793932</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-82009.56989793932</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18766,14 +18766,10 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>9470</v>
-      </c>
-      <c r="J557" t="n">
-        <v>9470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
@@ -18803,19 +18799,11 @@
         <v>-90258.02646255321</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>9510</v>
-      </c>
-      <c r="J558" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18844,19 +18832,11 @@
         <v>-90988.33346255322</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>9510</v>
-      </c>
-      <c r="J559" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18885,19 +18865,11 @@
         <v>-89304.71586255322</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>9500</v>
-      </c>
-      <c r="J560" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18926,19 +18898,11 @@
         <v>-88223.90871789913</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>9520</v>
-      </c>
-      <c r="J561" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18967,19 +18931,11 @@
         <v>-90964.47231789913</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>9545</v>
-      </c>
-      <c r="J562" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19008,19 +18964,11 @@
         <v>-90848.82201789913</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>9540</v>
-      </c>
-      <c r="J563" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19049,19 +18997,11 @@
         <v>-90852.98721789914</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>9550</v>
-      </c>
-      <c r="J564" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19090,19 +19030,11 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>9525</v>
-      </c>
-      <c r="J565" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19131,19 +19063,11 @@
         <v>-92186.11221789914</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>9520</v>
-      </c>
-      <c r="J566" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19172,19 +19096,11 @@
         <v>-91964.83321789914</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>9520</v>
-      </c>
-      <c r="J567" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19213,19 +19129,11 @@
         <v>-91356.78965100583</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>9550</v>
-      </c>
-      <c r="J568" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19254,19 +19162,11 @@
         <v>-91106.77475100584</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>9555</v>
-      </c>
-      <c r="J569" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19295,19 +19195,11 @@
         <v>-91159.95155100584</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>9575</v>
-      </c>
-      <c r="J570" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19339,14 +19231,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19375,19 +19261,11 @@
         <v>-90934.61195100583</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>9570</v>
-      </c>
-      <c r="J572" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19419,14 +19297,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19458,14 +19330,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19497,14 +19363,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19536,14 +19396,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19575,14 +19429,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19614,14 +19462,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19653,14 +19495,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19692,14 +19528,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19731,14 +19561,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19770,14 +19594,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19809,14 +19627,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19848,14 +19660,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19887,14 +19693,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19926,14 +19726,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19965,14 +19759,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20004,14 +19792,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20043,14 +19825,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20082,14 +19858,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20121,14 +19891,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20160,14 +19924,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20199,14 +19957,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20238,14 +19990,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20277,14 +20023,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20316,14 +20056,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20355,14 +20089,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20394,14 +20122,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20433,14 +20155,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20472,14 +20188,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20511,14 +20221,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20550,14 +20254,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20589,14 +20287,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20628,14 +20320,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20667,14 +20353,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20706,14 +20386,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20745,14 +20419,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20784,14 +20452,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20823,14 +20485,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20862,14 +20518,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20901,14 +20551,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20940,14 +20584,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20979,14 +20617,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21018,14 +20650,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21057,14 +20683,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21096,14 +20716,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21135,14 +20749,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21174,14 +20782,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21213,14 +20815,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21252,14 +20848,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21291,14 +20881,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21330,14 +20914,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21369,14 +20947,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21408,14 +20980,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21447,14 +21013,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21486,14 +21046,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21525,14 +21079,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21561,19 +21109,11 @@
         <v>-98911.82918557044</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>9675</v>
-      </c>
-      <c r="J628" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21602,19 +21142,11 @@
         <v>-97186.33038557044</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>9670</v>
-      </c>
-      <c r="J629" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21643,19 +21175,11 @@
         <v>-96548.70118557045</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>9690</v>
-      </c>
-      <c r="J630" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21684,19 +21208,11 @@
         <v>-96470.76528557045</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>9700</v>
-      </c>
-      <c r="J631" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21725,19 +21241,11 @@
         <v>-95538.33438557044</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>9730</v>
-      </c>
-      <c r="J632" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21769,14 +21277,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21805,19 +21307,13 @@
         <v>-84760.94498557044</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>9470</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
-        <v>1.028262935586061</v>
+        <v>1</v>
       </c>
       <c r="M634" t="inlineStr"/>
     </row>
@@ -21844,7 +21340,7 @@
         <v>-86246.24454852394</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21877,7 +21373,7 @@
         <v>-85542.13901147744</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21910,7 +21406,7 @@
         <v>-86709.01701147744</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21943,7 +21439,7 @@
         <v>-85653.66361147744</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22042,7 +21538,7 @@
         <v>-85952.28391147744</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22075,7 +21571,7 @@
         <v>-86858.98751147743</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23098,7 +22594,7 @@
         <v>-86778.06239850238</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23131,7 +22627,7 @@
         <v>-86241.56079850238</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23890,7 +23386,7 @@
         <v>-79595.31008433398</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23923,7 +23419,7 @@
         <v>-79040.48738433397</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23956,7 +23452,7 @@
         <v>-77992.41438433397</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23989,7 +23485,7 @@
         <v>-77519.09168433397</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24022,7 +23518,7 @@
         <v>-78426.78048433397</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24055,7 +23551,7 @@
         <v>-78975.02351659203</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24088,7 +23584,7 @@
         <v>-80132.61679792401</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24121,7 +23617,7 @@
         <v>-80784.27299792401</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24154,7 +23650,7 @@
         <v>-80146.81689792401</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24187,7 +23683,7 @@
         <v>-79314.43299792401</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24220,7 +23716,7 @@
         <v>-78155.52023018208</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24253,7 +23749,7 @@
         <v>-72839.49933018208</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24286,7 +23782,7 @@
         <v>-69855.04073018208</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25045,7 +24541,7 @@
         <v>-26623.18463049245</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25078,7 +24574,7 @@
         <v>-22347.90803983207</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25111,7 +24607,7 @@
         <v>-26771.74023983207</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25144,7 +24640,7 @@
         <v>-29071.01503983207</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25177,7 +24673,7 @@
         <v>-27931.94036103575</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -25210,7 +24706,7 @@
         <v>-29498.22814716016</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25243,7 +24739,7 @@
         <v>-28009.71484716016</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -25276,7 +24772,7 @@
         <v>-26798.49114716016</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25309,7 +24805,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25342,7 +24838,7 @@
         <v>-27467.67774716016</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25375,7 +24871,7 @@
         <v>-24643.95724716016</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25408,7 +24904,7 @@
         <v>-26851.28064716016</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25441,7 +24937,7 @@
         <v>-28069.13424716016</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25474,7 +24970,7 @@
         <v>-30080.02872929272</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25507,7 +25003,7 @@
         <v>-25479.56272929272</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25540,7 +25036,7 @@
         <v>-27549.04272929272</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25573,7 +25069,7 @@
         <v>-25516.82402929272</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25606,7 +25102,7 @@
         <v>-22594.18552929272</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25639,7 +25135,7 @@
         <v>-22071.96182929272</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25672,7 +25168,7 @@
         <v>-25185.91599202087</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25705,7 +25201,7 @@
         <v>-27383.38139202087</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25738,7 +25234,7 @@
         <v>-29287.27889202087</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25771,7 +25267,7 @@
         <v>-28116.67289202087</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25804,7 +25300,7 @@
         <v>-28963.65119202087</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25837,7 +25333,7 @@
         <v>-27798.49869202087</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25870,7 +25366,7 @@
         <v>-25499.12059202087</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25903,7 +25399,7 @@
         <v>-26465.85629202087</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26464,7 +25960,7 @@
         <v>-16395.69799202087</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26629,7 +26125,7 @@
         <v>-15191.09990052135</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26728,7 +26224,7 @@
         <v>-16787.03267000311</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -40885,17 +40381,11 @@
         <v>-94505.99314236941</v>
       </c>
       <c r="H1212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1212" t="n">
-        <v>9055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
-      <c r="K1212" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1212" t="inlineStr"/>
       <c r="L1212" t="n">
         <v>1</v>
       </c>
@@ -40928,11 +40418,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1213" t="inlineStr"/>
       <c r="L1213" t="n">
         <v>1</v>
       </c>
@@ -40961,17 +40447,11 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1214" t="n">
-        <v>9125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
-      <c r="K1214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1214" t="inlineStr"/>
       <c r="L1214" t="n">
         <v>1</v>
       </c>
@@ -41000,17 +40480,11 @@
         <v>-90665.63014236941</v>
       </c>
       <c r="H1215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1215" t="n">
-        <v>9140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
-      <c r="K1215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1215" t="inlineStr"/>
       <c r="L1215" t="n">
         <v>1</v>
       </c>
@@ -41047,7 +40521,7 @@
       <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L1216" t="n">
@@ -41115,11 +40589,9 @@
         <v>-95275.47154236941</v>
       </c>
       <c r="H1218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1218" t="n">
-        <v>9125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41154,11 +40626,9 @@
         <v>-96531.39783881944</v>
       </c>
       <c r="H1219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1219" t="n">
-        <v>9090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
@@ -41349,11 +40819,9 @@
         <v>-96352.20936742501</v>
       </c>
       <c r="H1224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1224" t="n">
-        <v>8990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
@@ -41583,9 +41051,11 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>9105</v>
+      </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41620,9 +41090,11 @@
         <v>-79681.89053957061</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>9125</v>
+      </c>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41657,9 +41129,11 @@
         <v>-81262.88413957061</v>
       </c>
       <c r="H1232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>9125</v>
+      </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
@@ -41694,9 +41168,11 @@
         <v>-78563.01003957061</v>
       </c>
       <c r="H1233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>9120</v>
+      </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
@@ -41731,9 +41207,11 @@
         <v>-70722.36333957061</v>
       </c>
       <c r="H1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>9125</v>
+      </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
